--- a/£EZJ.xlsx
+++ b/£EZJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0307B-62CB-A241-9603-6F9F1BB69325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96441BC-0C54-1848-BF36-0F09A99C7BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{A3BECAAA-F859-43CD-816A-424A712E82D6}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="33560" windowHeight="18900" xr2:uid="{A3BECAAA-F859-43CD-816A-424A712E82D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>£EZJ</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Kenton Jarvis</t>
   </si>
   <si>
-    <t>HY22</t>
-  </si>
-  <si>
     <t>H121</t>
   </si>
   <si>
@@ -300,29 +297,66 @@
     <t>L+S/E</t>
   </si>
   <si>
-    <t>HY220</t>
-  </si>
-  <si>
     <t>H120</t>
   </si>
   <si>
-    <t>HY119</t>
-  </si>
-  <si>
-    <t>HY219</t>
-  </si>
-  <si>
     <t>FY19</t>
+  </si>
+  <si>
+    <t>Company Profile</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Luton, UK</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,18 +392,54 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -493,19 +563,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,9 +593,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -534,50 +600,96 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -598,16 +710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415926</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3176</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -637,8 +749,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3070226" y="180975"/>
-          <a:ext cx="1809750" cy="1085850"/>
+          <a:off x="1812926" y="38100"/>
+          <a:ext cx="1148929" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,8 +784,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -689,7 +801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7747000" y="25400"/>
-          <a:ext cx="0" cy="7264400"/>
+          <a:ext cx="0" cy="16370300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -722,8 +834,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -739,7 +851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12636500" y="25400"/>
-          <a:ext cx="0" cy="7289800"/>
+          <a:ext cx="0" cy="16370300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1062,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF3537-1844-4F9B-8CFD-EA6C074BFE32}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1073,159 +1185,583 @@
     <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="F5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="27">
         <v>758</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="27">
         <f>C6*C7</f>
-        <v>3426.16</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2683.32</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="27">
         <v>3571</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="27">
         <v>3093</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>C9-C10</f>
         <v>478</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="45"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C8-C11</f>
+        <v>2205.3200000000002</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
-        <f>C8-C11</f>
-        <v>2948.16</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="28" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1995</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="21"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="21"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="57">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="48"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="55">
+        <f>C6/'Financial Model'!I79</f>
+        <v>1.0939180327868854</v>
+      </c>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="21"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="21"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="21"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="23">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1236,21 +1772,24 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{8C1D0C19-C5CD-414D-A3C6-0CDA8270B05E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDF551C-614D-4D64-8353-4526FE5F6F34}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1258,419 +1797,425 @@
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="20"/>
+    <col min="4" max="4" width="9.1640625" style="17"/>
     <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="20"/>
+    <col min="6" max="6" width="9.1640625" style="17"/>
     <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="20"/>
+    <col min="8" max="8" width="9.1640625" style="17"/>
     <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="20"/>
+    <col min="10" max="10" width="9.1640625" style="17"/>
     <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="O1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="16">
+    </row>
+    <row r="2" spans="1:17" s="51" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="50"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52">
         <v>44286</v>
       </c>
-      <c r="I2" s="16">
+      <c r="H2" s="53"/>
+      <c r="I2" s="52">
         <v>44651</v>
       </c>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>170</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="24">
         <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>70</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="24">
         <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="G5" s="37">
+        <v>22</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="G5" s="25">
         <f>G3+G4</f>
         <v>240</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="25">
         <f>I3+I4</f>
         <v>1498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>97</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="24">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1">
         <v>86</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="24">
         <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
         <v>224</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="24">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="24">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>109</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="24">
         <v>157</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="G11" s="36">
+        <v>33</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="24">
         <f>SUM(G6:G10)</f>
         <v>541</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="24">
         <f>SUM(I6:I10)</f>
         <v>1461</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="G12" s="37">
+        <v>34</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="25">
         <f>G5-G11</f>
         <v>-301</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="25">
         <f>I5-I11</f>
         <v>37</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>17</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="24">
         <v>68</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1">
         <v>141</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="24">
         <v>195</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>75</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="24">
         <v>5</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="G16" s="36">
+        <v>49</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="24">
         <f>G13+G14-G15</f>
         <v>83</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="24">
         <f>I13+I14-I15</f>
         <v>258</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="37">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="25">
         <f>G12-G16</f>
         <v>-384</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="37">
+      <c r="H17" s="18"/>
+      <c r="I17" s="25">
         <f>I12-I16</f>
         <v>-221</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="24">
         <v>1</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1">
         <v>204</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="24">
         <v>265</v>
       </c>
-      <c r="Q19" s="15"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1">
         <v>11</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="24">
         <v>12</v>
       </c>
-      <c r="Q20" s="15"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="37">
+        <v>35</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="25">
         <f>G17-G18-G19-G20</f>
         <v>-601</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="37">
+      <c r="H21" s="18"/>
+      <c r="I21" s="25">
         <f>I17-I18-I19-I20</f>
         <v>-499</v>
       </c>
-      <c r="Q21" s="15"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1">
         <v>51</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="24">
         <v>8</v>
       </c>
-      <c r="Q22" s="15"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1">
         <v>95</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="24">
         <v>66</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="G24" s="24">
         <f>G23-G22</f>
         <v>44</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="24">
         <f>I23-I22</f>
         <v>58</v>
       </c>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36">
+        <v>39</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="24">
         <f>G21-G24</f>
         <v>-645</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="24">
         <f>I21-I24</f>
         <v>-557</v>
       </c>
-      <c r="Q25" s="15"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1">
         <v>-96</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="24">
         <v>-126</v>
       </c>
-      <c r="Q26" s="15"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="G27" s="37">
+        <v>41</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="G27" s="25">
         <f>G25-G26</f>
         <v>-549</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="25">
         <f>I25-I26</f>
         <v>-431</v>
       </c>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="G28" s="17">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="G28" s="14">
         <f>G27/G29</f>
         <v>-1.020446096654275</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="14">
         <f>I27/I29</f>
         <v>-0.57161803713527848</v>
       </c>
-      <c r="Q28" s="15"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
@@ -1682,64 +2227,64 @@
       <c r="I29" s="1">
         <v>754</v>
       </c>
-      <c r="Q29" s="15"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="G31" s="18">
+        <v>43</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="15">
         <f>G12/G5</f>
         <v>-1.2541666666666667</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="15">
         <f>I12/I5</f>
         <v>2.4699599465954607E-2</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="G32" s="18">
+        <v>44</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="15">
         <f>G17/G5</f>
         <v>-1.6</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="15">
         <f>I17/I5</f>
         <v>-0.14753004005340453</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="G33" s="18">
+        <v>45</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="15">
         <f>G27/G5</f>
         <v>-2.2875000000000001</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="15">
         <f>I27/I5</f>
         <v>-0.28771695594125501</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="G34" s="18">
+        <v>46</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="15">
         <f>G26/G5</f>
         <v>-0.4</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="15">
         <f>I26/I5</f>
         <v>-8.4112149532710276E-2</v>
       </c>
@@ -1747,307 +2292,383 @@
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="38">
+        <v>47</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="26">
         <f>I5/G5-1</f>
         <v>5.2416666666666663</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
-        <v>51</v>
+      <c r="B40" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="36">
+        <v>60</v>
+      </c>
+      <c r="I41" s="24">
         <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="36">
+        <v>61</v>
+      </c>
+      <c r="I42" s="24">
         <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="24">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="54"/>
+      <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="36">
-        <v>4683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="25">
+        <v>31</v>
+      </c>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
+      <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="25">
+        <v>30</v>
+      </c>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
+      <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="36">
+      <c r="D46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="25">
         <v>1</v>
       </c>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="36">
+        <v>66</v>
+      </c>
+      <c r="I47" s="24">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="36">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="36">
+      <c r="I49" s="24">
         <f>SUM(I41:I48)</f>
         <v>5484</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="24">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I50" s="36">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="I51" s="24">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54"/>
+      <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="25">
+        <v>487</v>
+      </c>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="54"/>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="25">
+        <v>4</v>
+      </c>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="54"/>
+      <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="36">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" s="36">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="25">
+        <v>258</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="54"/>
+      <c r="B55" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="36">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="25">
+        <v>3247</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I55" s="36">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="36">
+      <c r="I56" s="24">
         <f>SUM(I49:I55)</f>
         <v>10335</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="54"/>
+      <c r="B59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I58" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="25">
+        <v>2623</v>
+      </c>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I59" s="36">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="I60" s="24">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="54"/>
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="25">
+        <v>38</v>
+      </c>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I60" s="36">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I61" s="36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="I62" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I62" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="I63" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I63" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="I64" s="24">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I64" s="36">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="36">
+      <c r="I65" s="24">
         <f>SUM(I58:I64)</f>
         <v>3910</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="24">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="24">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="54"/>
+      <c r="B68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="25">
+        <v>423</v>
+      </c>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="54"/>
+      <c r="B70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="25">
+        <v>9</v>
+      </c>
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I66" s="36">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="36">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I68" s="36">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" s="36">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="I71" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72" s="24">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="36">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I73" s="36">
+      <c r="I73" s="24">
         <f>I65+SUM(I66:I72)</f>
         <v>7895</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="24">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="36">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" s="36">
+      <c r="I76" s="24">
         <f>I73+I75</f>
         <v>10335</v>
       </c>
     </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="24">
+        <f>I56-I73</f>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" s="1">
+        <f>I78/I29</f>
+        <v>3.2360742705570291</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{0247E3F9-3A6B-974D-952C-89D0A16A0F38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/£EZJ.xlsx
+++ b/£EZJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96441BC-0C54-1848-BF36-0F09A99C7BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686EA1A-D653-4145-B86A-5F6323A153EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="33560" windowHeight="18900" xr2:uid="{A3BECAAA-F859-43CD-816A-424A712E82D6}"/>
+    <workbookView xWindow="45" yWindow="495" windowWidth="33555" windowHeight="18900" xr2:uid="{A3BECAAA-F859-43CD-816A-424A712E82D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>£EZJ</t>
   </si>
@@ -346,6 +336,9 @@
   </si>
   <si>
     <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -354,7 +347,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -617,39 +610,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -662,12 +622,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -678,20 +632,59 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1177,91 +1170,91 @@
   <dimension ref="B2:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="F5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="9">
         <v>3.54</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D6" s="34"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="27">
         <v>758</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1269,67 +1262,67 @@
         <f>C6*C7</f>
         <v>2683.32</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D8" s="34"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="27">
         <v>3571</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="27">
         <v>3093</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1337,21 +1330,21 @@
         <f>C9-C10</f>
         <v>478</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D11" s="34"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1359,402 +1352,399 @@
         <f>C8-C11</f>
         <v>2205.3200000000002</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="s">
+      <c r="D12" s="35"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D16" s="44"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D17" s="44"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="28" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="31" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="6"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="31" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="6"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="33" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="20"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="28" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D27" s="44"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="43">
         <v>1995</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="21"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D28" s="44"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="43">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="42">
         <v>44700</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="28" t="s">
+      <c r="D32" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="48">
         <f>C6/'Financial Model'!I79</f>
         <v>1.0939180327868854</v>
       </c>
-      <c r="D37" s="56"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="49"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="21"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="21"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="21"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="F5:Q5"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="C32:D32"/>
@@ -1771,6 +1761,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{8C1D0C19-C5CD-414D-A3C6-0CDA8270B05E}"/>
@@ -1792,22 +1789,22 @@
       <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="17"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="17"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="17"/>
-    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="17"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="17"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="11" t="s">
@@ -1828,7 +1825,7 @@
       <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="36" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
@@ -1850,23 +1847,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39">
         <v>44286</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52">
+      <c r="H2" s="40"/>
+      <c r="I2" s="39">
         <v>44651</v>
       </c>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1874,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1959,7 +1956,7 @@
       </c>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +1972,7 @@
       </c>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1991,7 +1988,7 @@
       </c>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2000,7 @@
       </c>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2015,7 +2012,7 @@
       </c>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2024,7 @@
       </c>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,7 +2040,7 @@
       </c>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
@@ -2062,7 +2059,7 @@
       </c>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2074,7 +2071,7 @@
       </c>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2086,7 +2083,7 @@
       </c>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2098,7 +2095,7 @@
       </c>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2114,7 @@
       </c>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,7 +2126,7 @@
       </c>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,7 +2138,7 @@
       </c>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2154,7 @@
       </c>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2173,7 +2170,7 @@
       </c>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2182,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +2198,7 @@
       </c>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2217,7 +2214,7 @@
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2226,7 @@
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>2.4699599465954607E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>-0.14753004005340453</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>-0.28771695594125501</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>-8.4112149532710276E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
@@ -2303,17 +2300,17 @@
       </c>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
@@ -2337,8 +2334,8 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
@@ -2350,8 +2347,8 @@
       </c>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
@@ -2363,8 +2360,8 @@
       </c>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
@@ -2376,7 +2373,7 @@
       </c>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>70</v>
       </c>
@@ -2417,8 +2414,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
       <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
@@ -2430,8 +2427,8 @@
       </c>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
       <c r="B53" s="3" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2440,8 @@
       </c>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
       <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
@@ -2456,8 +2453,8 @@
       </c>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="3" t="s">
         <v>72</v>
       </c>
@@ -2469,7 +2466,7 @@
       </c>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>10335</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2486,8 +2483,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
       <c r="B59" s="3" t="s">
         <v>75</v>
       </c>
@@ -2499,7 +2496,7 @@
       </c>
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>76</v>
       </c>
@@ -2507,8 +2504,8 @@
         <v>825</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2520,7 +2517,7 @@
       </c>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
@@ -2553,7 +2550,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
@@ -2561,7 +2558,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>
@@ -2569,8 +2566,8 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
       <c r="B68" s="3" t="s">
         <v>75</v>
       </c>
@@ -2582,7 +2579,7 @@
       </c>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2590,8 +2587,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
       <c r="B70" s="3" t="s">
         <v>63</v>
       </c>
@@ -2603,7 +2600,7 @@
       </c>
       <c r="J70" s="18"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>79</v>
       </c>
@@ -2619,7 +2616,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
@@ -2628,7 +2625,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>84</v>
       </c>
@@ -2636,7 +2633,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>85</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>10335</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>101</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>102</v>
       </c>
@@ -2680,9 +2677,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
